--- a/_data/projects.xlsx
+++ b/_data/projects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="332">
   <si>
     <t>team</t>
   </si>
@@ -704,6 +704,312 @@
   </si>
   <si>
     <t>Project Terrapin</t>
+  </si>
+  <si>
+    <t>egr304-2018</t>
+  </si>
+  <si>
+    <t>Team 16</t>
+  </si>
+  <si>
+    <t>Team 17</t>
+  </si>
+  <si>
+    <t>Team 18</t>
+  </si>
+  <si>
+    <t>Team 19</t>
+  </si>
+  <si>
+    <t>Team 20</t>
+  </si>
+  <si>
+    <t>Team 21</t>
+  </si>
+  <si>
+    <t>Team 22</t>
+  </si>
+  <si>
+    <t>Team 23</t>
+  </si>
+  <si>
+    <t>Team 24</t>
+  </si>
+  <si>
+    <t>Team 25</t>
+  </si>
+  <si>
+    <t>Team 201</t>
+  </si>
+  <si>
+    <t>Team 202</t>
+  </si>
+  <si>
+    <t>Team 203</t>
+  </si>
+  <si>
+    <t>Team 204</t>
+  </si>
+  <si>
+    <t>Team 205</t>
+  </si>
+  <si>
+    <t>Team 206</t>
+  </si>
+  <si>
+    <t>Team 207</t>
+  </si>
+  <si>
+    <t>Team 208</t>
+  </si>
+  <si>
+    <t>Team 209</t>
+  </si>
+  <si>
+    <t>egr314-s-2019</t>
+  </si>
+  <si>
+    <t>Cristian Cervantes</t>
+  </si>
+  <si>
+    <t>Griffin Puggie</t>
+  </si>
+  <si>
+    <t>James Reiter</t>
+  </si>
+  <si>
+    <t>Brett Goldsmith</t>
+  </si>
+  <si>
+    <t>Bao Nguyen</t>
+  </si>
+  <si>
+    <t>Jonathan Nguyen</t>
+  </si>
+  <si>
+    <t>Mykol Reklaitis</t>
+  </si>
+  <si>
+    <t>Robert Williams</t>
+  </si>
+  <si>
+    <t>Michael Anderson</t>
+  </si>
+  <si>
+    <t>Colton Didier</t>
+  </si>
+  <si>
+    <t>Benjamin Faudskar</t>
+  </si>
+  <si>
+    <t>Bryce Copenhaver</t>
+  </si>
+  <si>
+    <t>Ryan Demerest</t>
+  </si>
+  <si>
+    <t>Grady Gaugler</t>
+  </si>
+  <si>
+    <t>Mason Smith</t>
+  </si>
+  <si>
+    <t>Ryan Bodhipaksha</t>
+  </si>
+  <si>
+    <t>Joe Bridge</t>
+  </si>
+  <si>
+    <t>Faisal Mosattat</t>
+  </si>
+  <si>
+    <t>Smart Window Blinds</t>
+  </si>
+  <si>
+    <t>Moath A</t>
+  </si>
+  <si>
+    <t>Ryne M</t>
+  </si>
+  <si>
+    <t>Skyler M</t>
+  </si>
+  <si>
+    <t>Efren V</t>
+  </si>
+  <si>
+    <t>Smart Thermometer</t>
+  </si>
+  <si>
+    <t>Automatic resistor dispensers</t>
+  </si>
+  <si>
+    <t>Wireless Gardening Assistant</t>
+  </si>
+  <si>
+    <t>Smart Safe</t>
+  </si>
+  <si>
+    <t>Smart Hydro</t>
+  </si>
+  <si>
+    <t>Smart Caddy</t>
+  </si>
+  <si>
+    <t>Smart Rainfall Irrigation System</t>
+  </si>
+  <si>
+    <t>Live Door Lock</t>
+  </si>
+  <si>
+    <t>Smart Door</t>
+  </si>
+  <si>
+    <t>Lucas Vasquez</t>
+  </si>
+  <si>
+    <t>Joseph Patterson</t>
+  </si>
+  <si>
+    <t>Haluk Shephard</t>
+  </si>
+  <si>
+    <t>Elias Turkostane</t>
+  </si>
+  <si>
+    <t>Alia Gilbert</t>
+  </si>
+  <si>
+    <t>Andrew Martinez</t>
+  </si>
+  <si>
+    <t>Andrei Marinescu</t>
+  </si>
+  <si>
+    <t>Cole Rame</t>
+  </si>
+  <si>
+    <t>Charlotte Deming</t>
+  </si>
+  <si>
+    <t>David Gasson</t>
+  </si>
+  <si>
+    <t>Kevin Curran</t>
+  </si>
+  <si>
+    <t>Isai Perez</t>
+  </si>
+  <si>
+    <t>Juan Cabrera</t>
+  </si>
+  <si>
+    <t>Abdullahi Abdirahman</t>
+  </si>
+  <si>
+    <t>Mario Campero</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>.png</t>
+  </si>
+  <si>
+    <t>Shooting Gallery</t>
+  </si>
+  <si>
+    <t>Digital Masterminds</t>
+  </si>
+  <si>
+    <t>Automated Cribbage</t>
+  </si>
+  <si>
+    <t>Smart Fan</t>
+  </si>
+  <si>
+    <t>Cornhole</t>
+  </si>
+  <si>
+    <t>Quiet Game</t>
+  </si>
+  <si>
+    <t>Binary Education Box</t>
+  </si>
+  <si>
+    <t>Criminal Monopoly</t>
+  </si>
+  <si>
+    <t>Spaceship Strategy Game</t>
+  </si>
+  <si>
+    <t>David Baughman</t>
+  </si>
+  <si>
+    <t>Daniel Didio</t>
+  </si>
+  <si>
+    <t>Thor Bell</t>
+  </si>
+  <si>
+    <t>Estevan Aldaco</t>
+  </si>
+  <si>
+    <t>Moath Alsaud</t>
+  </si>
+  <si>
+    <t>Ryne Mathias</t>
+  </si>
+  <si>
+    <t>Nicolas Ramirez Apodaca</t>
+  </si>
+  <si>
+    <t>Cole Loughrey</t>
+  </si>
+  <si>
+    <t>Brett Downey</t>
+  </si>
+  <si>
+    <t>Kayleigh Gavin</t>
+  </si>
+  <si>
+    <t>Austin Martinez</t>
+  </si>
+  <si>
+    <t>Ivan Munoz</t>
+  </si>
+  <si>
+    <t>Jonald Semallie</t>
+  </si>
+  <si>
+    <t>Wesley Eisele</t>
+  </si>
+  <si>
+    <t>Heidi Rodriguez</t>
+  </si>
+  <si>
+    <t>Conor McBarron</t>
+  </si>
+  <si>
+    <t>Lukasz Szczepanek</t>
+  </si>
+  <si>
+    <t>Matthew Thiem</t>
+  </si>
+  <si>
+    <t>Mariah Thomas</t>
+  </si>
+  <si>
+    <t>Alyssa Reid</t>
+  </si>
+  <si>
+    <t>Dante Roush</t>
+  </si>
+  <si>
+    <t>/assets/images/egr314-s-2019/team-</t>
+  </si>
+  <si>
+    <t>/assets/images/egr304-f-2018/team-</t>
   </si>
 </sst>
 </file>
@@ -1188,8 +1494,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1532,13 +1839,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:Q79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22:C30"/>
+      <selection pane="bottomRight" activeCell="P61" sqref="P61:P70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1547,9 +1854,10 @@
     <col min="10" max="10" width="43.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="30.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1592,8 +1900,11 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1607,7 +1918,7 @@
         <v>16</v>
       </c>
       <c r="J2" t="str">
-        <f>K2&amp;L2</f>
+        <f t="shared" ref="J2:J33" si="0">K2&amp;L2</f>
         <v>https://www.youtube.com/embed/RKEyPuGk9pM</v>
       </c>
       <c r="K2" t="s">
@@ -1617,7 +1928,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1631,7 +1942,7 @@
         <v>20</v>
       </c>
       <c r="J3" t="str">
-        <f>K3&amp;L3</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/embed/74ij3Lcx2KM</v>
       </c>
       <c r="K3" t="s">
@@ -1641,7 +1952,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1655,7 +1966,7 @@
         <v>23</v>
       </c>
       <c r="J4" t="str">
-        <f>K4&amp;L4</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/embed/QVQf8OC6cR4</v>
       </c>
       <c r="K4" t="s">
@@ -1665,7 +1976,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1682,7 +1993,7 @@
         <v>27</v>
       </c>
       <c r="J5" t="str">
-        <f>K5&amp;L5</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/embed/T0C2KfUeb74</v>
       </c>
       <c r="K5" t="s">
@@ -1692,7 +2003,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1706,7 +2017,7 @@
         <v>30</v>
       </c>
       <c r="J6" t="str">
-        <f>K6&amp;L6</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/embed/Z1ndQFZICP4</v>
       </c>
       <c r="K6" t="s">
@@ -1716,7 +2027,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1730,7 +2041,7 @@
         <v>33</v>
       </c>
       <c r="J7" t="str">
-        <f>K7&amp;L7</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/embed/HmvIEy04sCE</v>
       </c>
       <c r="K7" t="s">
@@ -1740,7 +2051,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1754,7 +2065,7 @@
         <v>36</v>
       </c>
       <c r="J8" t="str">
-        <f>K8&amp;L8</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/embed/4zMUiULasiU</v>
       </c>
       <c r="K8" t="s">
@@ -1764,7 +2075,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1778,7 +2089,7 @@
         <v>39</v>
       </c>
       <c r="J9" t="str">
-        <f>K9&amp;L9</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/embed/YOrZKh6QJzA</v>
       </c>
       <c r="K9" t="s">
@@ -1788,7 +2099,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1802,7 +2113,7 @@
         <v>42</v>
       </c>
       <c r="J10" t="str">
-        <f>K10&amp;L10</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/embed/lG_-ONVEPzM</v>
       </c>
       <c r="K10" t="s">
@@ -1812,7 +2123,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1826,7 +2137,7 @@
         <v>42</v>
       </c>
       <c r="J11" t="str">
-        <f>K11&amp;L11</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/embed/h38WRwGP_3k</v>
       </c>
       <c r="K11" t="s">
@@ -1836,7 +2147,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1847,7 +2158,7 @@
         <v>47</v>
       </c>
       <c r="J12" t="str">
-        <f>K12&amp;L12</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/embed/3QJHRG8OxqY</v>
       </c>
       <c r="K12" t="s">
@@ -1857,7 +2168,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1868,7 +2179,7 @@
         <v>47</v>
       </c>
       <c r="J13" t="str">
-        <f>K13&amp;L13</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/embed/r1gnGjtWia4</v>
       </c>
       <c r="K13" t="s">
@@ -1878,7 +2189,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1889,7 +2200,7 @@
         <v>47</v>
       </c>
       <c r="J14" t="str">
-        <f>K14&amp;L14</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/embed/C1VE7Z-zG3Y</v>
       </c>
       <c r="K14" t="s">
@@ -1899,7 +2210,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -1910,7 +2221,7 @@
         <v>51</v>
       </c>
       <c r="J15" t="str">
-        <f>K15&amp;L15</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/embed/QyJm3sPofW8</v>
       </c>
       <c r="K15" t="s">
@@ -1920,7 +2231,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5</v>
       </c>
@@ -1931,7 +2242,7 @@
         <v>51</v>
       </c>
       <c r="J16" t="str">
-        <f>K16&amp;L16</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/embed/gHgQh1zahmI</v>
       </c>
       <c r="K16" t="s">
@@ -1952,7 +2263,7 @@
         <v>51</v>
       </c>
       <c r="J17" t="str">
-        <f>K17&amp;L17</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/embed/STamtALXJzk</v>
       </c>
       <c r="K17" t="s">
@@ -1973,7 +2284,7 @@
         <v>55</v>
       </c>
       <c r="J18" t="str">
-        <f>K18&amp;L18</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/embed/kbtS8J_JME4</v>
       </c>
       <c r="K18" t="s">
@@ -1994,7 +2305,7 @@
         <v>55</v>
       </c>
       <c r="J19" t="str">
-        <f>K19&amp;L19</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/embed/FqqW7bgUBnQ</v>
       </c>
       <c r="K19" t="s">
@@ -2015,7 +2326,7 @@
         <v>58</v>
       </c>
       <c r="J20" t="str">
-        <f>K20&amp;L20</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/embed/LuWthABiU74</v>
       </c>
       <c r="K20" t="s">
@@ -2036,7 +2347,7 @@
         <v>58</v>
       </c>
       <c r="J21" t="str">
-        <f>K21&amp;L21</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/embed/C9UJqQTyB4o</v>
       </c>
       <c r="K21" t="s">
@@ -2066,7 +2377,7 @@
         <v>64</v>
       </c>
       <c r="J22" t="str">
-        <f>K22&amp;L22</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/embed/9cquekrlAFY</v>
       </c>
       <c r="K22" t="s">
@@ -2093,7 +2404,7 @@
         <v>207</v>
       </c>
       <c r="J23" t="str">
-        <f>K23&amp;L23</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/embed/OOU8fvta0MU</v>
       </c>
       <c r="K23" t="s">
@@ -2120,7 +2431,7 @@
         <v>209</v>
       </c>
       <c r="J24" t="str">
-        <f>K24&amp;L24</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/embed/4wf1T_Isjxs</v>
       </c>
       <c r="K24" t="s">
@@ -2147,7 +2458,7 @@
         <v>213</v>
       </c>
       <c r="J25" t="str">
-        <f>K25&amp;L25</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/embed/s5PpXS_6Hpc</v>
       </c>
       <c r="K25" t="s">
@@ -2174,7 +2485,7 @@
         <v>216</v>
       </c>
       <c r="J26" t="str">
-        <f>K26&amp;L26</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/embed/E8naondPMQc</v>
       </c>
       <c r="K26" t="s">
@@ -2201,7 +2512,7 @@
         <v>219</v>
       </c>
       <c r="J27" t="str">
-        <f>K27&amp;L27</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/embed/v8fJMyx35YM</v>
       </c>
       <c r="K27" t="s">
@@ -2228,7 +2539,7 @@
         <v>221</v>
       </c>
       <c r="J28" t="str">
-        <f>K28&amp;L28</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/embed/HCq2xC5SIW8</v>
       </c>
       <c r="K28" t="s">
@@ -2255,7 +2566,7 @@
         <v>227</v>
       </c>
       <c r="J29" t="str">
-        <f>K29&amp;L29</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/embed/xH3NU1Hegww</v>
       </c>
       <c r="K29" t="s">
@@ -2282,7 +2593,7 @@
         <v>225</v>
       </c>
       <c r="J30" t="str">
-        <f>K30&amp;L30</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/embed/ESAtYal_gKM</v>
       </c>
       <c r="K30" t="s">
@@ -2309,7 +2620,7 @@
         <v>77</v>
       </c>
       <c r="J31" t="str">
-        <f>K31&amp;L31</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/embed/B38gQbYhMug</v>
       </c>
       <c r="K31" t="s">
@@ -2339,7 +2650,7 @@
         <v>82</v>
       </c>
       <c r="J32" t="str">
-        <f>K32&amp;L32</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/embed/kKutC3bD52o</v>
       </c>
       <c r="K32" t="s">
@@ -2369,7 +2680,7 @@
         <v>87</v>
       </c>
       <c r="J33" t="str">
-        <f>K33&amp;L33</f>
+        <f t="shared" si="0"/>
         <v>https://www.youtube.com/embed/ZKW4EwfQ2e4</v>
       </c>
       <c r="K33" t="s">
@@ -2399,7 +2710,7 @@
         <v>92</v>
       </c>
       <c r="J34" t="str">
-        <f>K34&amp;L34</f>
+        <f t="shared" ref="J34:J60" si="1">K34&amp;L34</f>
         <v>https://www.youtube.com/embed/iFcGFORC2wE</v>
       </c>
       <c r="K34" t="s">
@@ -2426,7 +2737,7 @@
         <v>96</v>
       </c>
       <c r="J35" t="str">
-        <f>K35&amp;L35</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/embed/pYHxTSzwYto</v>
       </c>
       <c r="K35" t="s">
@@ -2456,7 +2767,7 @@
         <v>101</v>
       </c>
       <c r="J36" t="str">
-        <f>K36&amp;L36</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/embed/hfznhWFH2Cc</v>
       </c>
       <c r="K36" t="s">
@@ -2483,7 +2794,7 @@
         <v>105</v>
       </c>
       <c r="J37" t="str">
-        <f>K37&amp;L37</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/embed/RhA8A_scxvE</v>
       </c>
       <c r="K37" t="s">
@@ -2510,7 +2821,7 @@
         <v>109</v>
       </c>
       <c r="J38" t="str">
-        <f>K38&amp;L38</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2531,7 +2842,7 @@
         <v>112</v>
       </c>
       <c r="J39" t="str">
-        <f>K39&amp;L39</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2543,7 +2854,7 @@
         <v>113</v>
       </c>
       <c r="J40" t="str">
-        <f>K40&amp;L40</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/embed/dU7GERFQa9c</v>
       </c>
       <c r="K40" t="s">
@@ -2561,7 +2872,7 @@
         <v>113</v>
       </c>
       <c r="J41" t="str">
-        <f>K41&amp;L41</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/embed/UiO-6lxJG8o</v>
       </c>
       <c r="K41" t="s">
@@ -2579,7 +2890,7 @@
         <v>113</v>
       </c>
       <c r="J42" t="str">
-        <f>K42&amp;L42</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/embed/855Oknr7pY0</v>
       </c>
       <c r="K42" t="s">
@@ -2597,7 +2908,7 @@
         <v>113</v>
       </c>
       <c r="J43" t="str">
-        <f>K43&amp;L43</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/embed/KLkGaoYm5nM</v>
       </c>
       <c r="K43" t="s">
@@ -2615,7 +2926,7 @@
         <v>113</v>
       </c>
       <c r="J44" t="str">
-        <f>K44&amp;L44</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/embed/M_-CwxS4KZg</v>
       </c>
       <c r="K44" t="s">
@@ -2633,7 +2944,7 @@
         <v>113</v>
       </c>
       <c r="J45" t="str">
-        <f>K45&amp;L45</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/embed/a1oa3xx_Aeo</v>
       </c>
       <c r="K45" t="s">
@@ -2651,7 +2962,7 @@
         <v>113</v>
       </c>
       <c r="J46" t="str">
-        <f>K46&amp;L46</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/embed/QaFhwTco2Tc</v>
       </c>
       <c r="K46" t="s">
@@ -2669,7 +2980,7 @@
         <v>113</v>
       </c>
       <c r="J47" t="str">
-        <f>K47&amp;L47</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/embed/Y3GEaOxrcWk</v>
       </c>
       <c r="K47" t="s">
@@ -2702,7 +3013,7 @@
         <v>200</v>
       </c>
       <c r="J48" t="str">
-        <f>K48&amp;L48</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/embed/bPYNM20qZOg</v>
       </c>
       <c r="K48" t="s">
@@ -2718,7 +3029,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2</v>
       </c>
@@ -2741,7 +3052,7 @@
         <v>201</v>
       </c>
       <c r="J49" t="str">
-        <f>K49&amp;L49</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/embed/mb3JeXSTooo</v>
       </c>
       <c r="K49" t="s">
@@ -2757,7 +3068,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2780,7 +3091,7 @@
         <v>202</v>
       </c>
       <c r="J50" t="str">
-        <f>K50&amp;L50</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/embed/UffnJ4CjKSY</v>
       </c>
       <c r="K50" t="s">
@@ -2796,7 +3107,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>4</v>
       </c>
@@ -2819,7 +3130,7 @@
         <v>203</v>
       </c>
       <c r="J51" t="str">
-        <f>K51&amp;L51</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/embed/WB2zvEWDNAI</v>
       </c>
       <c r="K51" t="s">
@@ -2835,7 +3146,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>5</v>
       </c>
@@ -2855,7 +3166,7 @@
         <v>198</v>
       </c>
       <c r="J52" t="str">
-        <f>K52&amp;L52</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/embed/1Yb8dnu5kr8</v>
       </c>
       <c r="K52" t="s">
@@ -2871,7 +3182,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>6</v>
       </c>
@@ -2894,7 +3205,7 @@
         <v>204</v>
       </c>
       <c r="J53" t="str">
-        <f>K53&amp;L53</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/embed/iFRHXeooEPY</v>
       </c>
       <c r="K53" t="s">
@@ -2910,7 +3221,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2933,7 +3244,7 @@
         <v>145</v>
       </c>
       <c r="J54" t="str">
-        <f>K54&amp;L54</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/embed/g_Zpm_S7QKM</v>
       </c>
       <c r="K54" t="s">
@@ -2943,7 +3254,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2</v>
       </c>
@@ -2969,7 +3280,7 @@
         <v>149</v>
       </c>
       <c r="J55" t="str">
-        <f>K55&amp;L55</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/embed/ybNgmfEjAmE</v>
       </c>
       <c r="K55" t="s">
@@ -2979,7 +3290,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>3</v>
       </c>
@@ -3005,7 +3316,7 @@
         <v>153</v>
       </c>
       <c r="J56" t="str">
-        <f>K56&amp;L56</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/embed/PcwksQCLKDI</v>
       </c>
       <c r="K56" t="s">
@@ -3015,7 +3326,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>5</v>
       </c>
@@ -3041,7 +3352,7 @@
         <v>157</v>
       </c>
       <c r="J57" t="str">
-        <f>K57&amp;L57</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/embed/jjkITn4U7Hk</v>
       </c>
       <c r="K57" t="s">
@@ -3051,7 +3362,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>6</v>
       </c>
@@ -3074,7 +3385,7 @@
         <v>160</v>
       </c>
       <c r="J58" t="str">
-        <f>K58&amp;L58</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/embed/Vz-OWv139OU</v>
       </c>
       <c r="K58" t="s">
@@ -3084,7 +3395,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>7</v>
       </c>
@@ -3110,7 +3421,7 @@
         <v>164</v>
       </c>
       <c r="J59" t="str">
-        <f>K59&amp;L59</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/embed/aiPKkt1Q0aQ</v>
       </c>
       <c r="K59" t="s">
@@ -3120,7 +3431,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>8</v>
       </c>
@@ -3140,7 +3451,7 @@
         <v>166</v>
       </c>
       <c r="J60" t="str">
-        <f>K60&amp;L60</f>
+        <f t="shared" si="1"/>
         <v>https://www.youtube.com/embed/HgPRcpVaYTo</v>
       </c>
       <c r="K60" t="s">
@@ -3150,7 +3461,680 @@
         <v>142</v>
       </c>
     </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
+        <v>230</v>
+      </c>
+      <c r="C61" t="s">
+        <v>231</v>
+      </c>
+      <c r="D61" t="s">
+        <v>274</v>
+      </c>
+      <c r="E61" t="s">
+        <v>251</v>
+      </c>
+      <c r="F61" t="s">
+        <v>161</v>
+      </c>
+      <c r="G61" t="s">
+        <v>252</v>
+      </c>
+      <c r="H61" t="s">
+        <v>253</v>
+      </c>
+      <c r="O61" s="1" t="str">
+        <f>P61&amp;A61&amp;Q61</f>
+        <v>/assets/images/egr304-f-2018/team-16.png</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>17</v>
+      </c>
+      <c r="B62" t="s">
+        <v>230</v>
+      </c>
+      <c r="C62" t="s">
+        <v>232</v>
+      </c>
+      <c r="D62" t="s">
+        <v>275</v>
+      </c>
+      <c r="E62" t="s">
+        <v>254</v>
+      </c>
+      <c r="F62" t="s">
+        <v>255</v>
+      </c>
+      <c r="G62" t="s">
+        <v>256</v>
+      </c>
+      <c r="H62" t="s">
+        <v>257</v>
+      </c>
+      <c r="O62" s="1" t="str">
+        <f t="shared" ref="O62:O79" si="2">P62&amp;A62&amp;Q62</f>
+        <v>/assets/images/egr304-f-2018/team-17.png</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>18</v>
+      </c>
+      <c r="B63" t="s">
+        <v>230</v>
+      </c>
+      <c r="C63" t="s">
+        <v>233</v>
+      </c>
+      <c r="D63" t="s">
+        <v>276</v>
+      </c>
+      <c r="E63" t="s">
+        <v>262</v>
+      </c>
+      <c r="F63" t="s">
+        <v>263</v>
+      </c>
+      <c r="G63" t="s">
+        <v>264</v>
+      </c>
+      <c r="H63" t="s">
+        <v>265</v>
+      </c>
+      <c r="O63" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>/assets/images/egr304-f-2018/team-18.png</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>19</v>
+      </c>
+      <c r="B64" t="s">
+        <v>230</v>
+      </c>
+      <c r="C64" t="s">
+        <v>234</v>
+      </c>
+      <c r="D64" t="s">
+        <v>277</v>
+      </c>
+      <c r="E64" t="s">
+        <v>270</v>
+      </c>
+      <c r="F64" t="s">
+        <v>271</v>
+      </c>
+      <c r="G64" t="s">
+        <v>272</v>
+      </c>
+      <c r="H64" t="s">
+        <v>273</v>
+      </c>
+      <c r="O64" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>/assets/images/egr304-f-2018/team-19.png</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>20</v>
+      </c>
+      <c r="B65" t="s">
+        <v>230</v>
+      </c>
+      <c r="C65" t="s">
+        <v>235</v>
+      </c>
+      <c r="D65" t="s">
+        <v>278</v>
+      </c>
+      <c r="E65" t="s">
+        <v>259</v>
+      </c>
+      <c r="F65" t="s">
+        <v>260</v>
+      </c>
+      <c r="G65" t="s">
+        <v>261</v>
+      </c>
+      <c r="H65" t="s">
+        <v>258</v>
+      </c>
+      <c r="O65" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>/assets/images/egr304-f-2018/team-20.png</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>21</v>
+      </c>
+      <c r="B66" t="s">
+        <v>230</v>
+      </c>
+      <c r="C66" t="s">
+        <v>236</v>
+      </c>
+      <c r="D66" t="s">
+        <v>269</v>
+      </c>
+      <c r="E66" t="s">
+        <v>266</v>
+      </c>
+      <c r="F66" t="s">
+        <v>267</v>
+      </c>
+      <c r="G66" t="s">
+        <v>268</v>
+      </c>
+      <c r="O66" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>/assets/images/egr304-f-2018/team-21.png</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>22</v>
+      </c>
+      <c r="B67" t="s">
+        <v>230</v>
+      </c>
+      <c r="C67" t="s">
+        <v>237</v>
+      </c>
+      <c r="D67" t="s">
+        <v>279</v>
+      </c>
+      <c r="E67" t="s">
+        <v>294</v>
+      </c>
+      <c r="F67" t="s">
+        <v>290</v>
+      </c>
+      <c r="G67" t="s">
+        <v>286</v>
+      </c>
+      <c r="H67" t="s">
+        <v>283</v>
+      </c>
+      <c r="O67" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>/assets/images/egr304-f-2018/team-22.png</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>23</v>
+      </c>
+      <c r="B68" t="s">
+        <v>230</v>
+      </c>
+      <c r="C68" t="s">
+        <v>238</v>
+      </c>
+      <c r="D68" t="s">
+        <v>280</v>
+      </c>
+      <c r="E68" t="s">
+        <v>295</v>
+      </c>
+      <c r="F68" t="s">
+        <v>291</v>
+      </c>
+      <c r="G68" t="s">
+        <v>287</v>
+      </c>
+      <c r="H68" t="s">
+        <v>284</v>
+      </c>
+      <c r="O68" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>/assets/images/egr304-f-2018/team-23.png</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>24</v>
+      </c>
+      <c r="B69" t="s">
+        <v>230</v>
+      </c>
+      <c r="C69" t="s">
+        <v>239</v>
+      </c>
+      <c r="D69" t="s">
+        <v>281</v>
+      </c>
+      <c r="E69" t="s">
+        <v>296</v>
+      </c>
+      <c r="F69" t="s">
+        <v>292</v>
+      </c>
+      <c r="G69" t="s">
+        <v>288</v>
+      </c>
+      <c r="O69" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>/assets/images/egr304-f-2018/team-24.png</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>25</v>
+      </c>
+      <c r="B70" t="s">
+        <v>230</v>
+      </c>
+      <c r="C70" t="s">
+        <v>240</v>
+      </c>
+      <c r="D70" t="s">
+        <v>282</v>
+      </c>
+      <c r="E70" t="s">
+        <v>297</v>
+      </c>
+      <c r="F70" t="s">
+        <v>293</v>
+      </c>
+      <c r="G70" t="s">
+        <v>289</v>
+      </c>
+      <c r="H70" t="s">
+        <v>285</v>
+      </c>
+      <c r="O70" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>/assets/images/egr304-f-2018/team-25.png</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>201</v>
+      </c>
+      <c r="B71" t="s">
+        <v>250</v>
+      </c>
+      <c r="C71" t="s">
+        <v>241</v>
+      </c>
+      <c r="D71" t="s">
+        <v>300</v>
+      </c>
+      <c r="E71" t="s">
+        <v>313</v>
+      </c>
+      <c r="F71" t="s">
+        <v>319</v>
+      </c>
+      <c r="G71" t="s">
+        <v>324</v>
+      </c>
+      <c r="O71" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>/assets/images/egr314-s-2019/team-201.png</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>202</v>
+      </c>
+      <c r="B72" t="s">
+        <v>250</v>
+      </c>
+      <c r="C72" t="s">
+        <v>242</v>
+      </c>
+      <c r="D72" t="s">
+        <v>301</v>
+      </c>
+      <c r="E72" t="s">
+        <v>295</v>
+      </c>
+      <c r="F72" t="s">
+        <v>291</v>
+      </c>
+      <c r="G72" t="s">
+        <v>254</v>
+      </c>
+      <c r="H72" t="s">
+        <v>257</v>
+      </c>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>203</v>
+      </c>
+      <c r="B73" t="s">
+        <v>250</v>
+      </c>
+      <c r="C73" t="s">
+        <v>243</v>
+      </c>
+      <c r="D73" t="s">
+        <v>302</v>
+      </c>
+      <c r="E73" t="s">
+        <v>309</v>
+      </c>
+      <c r="F73" t="s">
+        <v>262</v>
+      </c>
+      <c r="G73" t="s">
+        <v>287</v>
+      </c>
+      <c r="H73" t="s">
+        <v>289</v>
+      </c>
+      <c r="O73" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>/assets/images/egr314-s-2019/team-203.png</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>204</v>
+      </c>
+      <c r="B74" t="s">
+        <v>250</v>
+      </c>
+      <c r="C74" t="s">
+        <v>244</v>
+      </c>
+      <c r="D74" t="s">
+        <v>303</v>
+      </c>
+      <c r="E74" t="s">
+        <v>310</v>
+      </c>
+      <c r="F74" t="s">
+        <v>314</v>
+      </c>
+      <c r="G74" t="s">
+        <v>320</v>
+      </c>
+      <c r="H74" t="s">
+        <v>325</v>
+      </c>
+      <c r="O74" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>/assets/images/egr314-s-2019/team-204.png</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>205</v>
+      </c>
+      <c r="B75" t="s">
+        <v>250</v>
+      </c>
+      <c r="C75" t="s">
+        <v>245</v>
+      </c>
+      <c r="D75" t="s">
+        <v>304</v>
+      </c>
+      <c r="E75" t="s">
+        <v>162</v>
+      </c>
+      <c r="F75" t="s">
+        <v>315</v>
+      </c>
+      <c r="G75" t="s">
+        <v>321</v>
+      </c>
+      <c r="H75" t="s">
+        <v>326</v>
+      </c>
+      <c r="O75" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>/assets/images/egr314-s-2019/team-205.png</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>206</v>
+      </c>
+      <c r="B76" t="s">
+        <v>250</v>
+      </c>
+      <c r="C76" t="s">
+        <v>246</v>
+      </c>
+      <c r="D76" t="s">
+        <v>305</v>
+      </c>
+      <c r="E76" t="s">
+        <v>251</v>
+      </c>
+      <c r="F76" t="s">
+        <v>316</v>
+      </c>
+      <c r="G76" t="s">
+        <v>252</v>
+      </c>
+      <c r="H76" t="s">
+        <v>258</v>
+      </c>
+      <c r="O76" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>/assets/images/egr314-s-2019/team-206.png</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>207</v>
+      </c>
+      <c r="B77" t="s">
+        <v>250</v>
+      </c>
+      <c r="C77" t="s">
+        <v>247</v>
+      </c>
+      <c r="D77" t="s">
+        <v>306</v>
+      </c>
+      <c r="E77" t="s">
+        <v>311</v>
+      </c>
+      <c r="F77" t="s">
+        <v>317</v>
+      </c>
+      <c r="G77" t="s">
+        <v>322</v>
+      </c>
+      <c r="H77" t="s">
+        <v>327</v>
+      </c>
+      <c r="O77" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>/assets/images/egr314-s-2019/team-207.png</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>208</v>
+      </c>
+      <c r="B78" t="s">
+        <v>250</v>
+      </c>
+      <c r="C78" t="s">
+        <v>248</v>
+      </c>
+      <c r="D78" t="s">
+        <v>307</v>
+      </c>
+      <c r="E78" t="s">
+        <v>261</v>
+      </c>
+      <c r="F78" t="s">
+        <v>255</v>
+      </c>
+      <c r="G78" t="s">
+        <v>290</v>
+      </c>
+      <c r="H78" t="s">
+        <v>328</v>
+      </c>
+      <c r="O78" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>/assets/images/egr314-s-2019/team-208.png</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>209</v>
+      </c>
+      <c r="B79" t="s">
+        <v>250</v>
+      </c>
+      <c r="C79" t="s">
+        <v>249</v>
+      </c>
+      <c r="D79" t="s">
+        <v>308</v>
+      </c>
+      <c r="E79" t="s">
+        <v>312</v>
+      </c>
+      <c r="F79" t="s">
+        <v>318</v>
+      </c>
+      <c r="G79" t="s">
+        <v>323</v>
+      </c>
+      <c r="H79" t="s">
+        <v>329</v>
+      </c>
+      <c r="O79" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>/assets/images/egr314-s-2019/team-209.png</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>299</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/_data/projects.xlsx
+++ b/_data/projects.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danaukes\websites\idealabasu\_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC52457-6E62-4873-BAA7-C5F3E2A6C5B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="6960" windowWidth="30744" windowHeight="7008"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="projects" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="356">
   <si>
     <t>team</t>
   </si>
@@ -1010,12 +1024,84 @@
   </si>
   <si>
     <t>/assets/images/egr304-f-2018/team-</t>
+  </si>
+  <si>
+    <t>egr304-f-2019</t>
+  </si>
+  <si>
+    <t>Team 101</t>
+  </si>
+  <si>
+    <t>Team 102</t>
+  </si>
+  <si>
+    <t>Team 103</t>
+  </si>
+  <si>
+    <t>Team 104</t>
+  </si>
+  <si>
+    <t>Smart Waste Tracking: Trashbit</t>
+  </si>
+  <si>
+    <t>Water Control Valve</t>
+  </si>
+  <si>
+    <t>Nutrition for Food Scarcity</t>
+  </si>
+  <si>
+    <t>Biological Air Purifier</t>
+  </si>
+  <si>
+    <t>Kamille Green</t>
+  </si>
+  <si>
+    <t>George Muhn</t>
+  </si>
+  <si>
+    <t>Kylel Scott</t>
+  </si>
+  <si>
+    <t>Kenneth Batson</t>
+  </si>
+  <si>
+    <t>Nick Fisher</t>
+  </si>
+  <si>
+    <t>Scott Lewis</t>
+  </si>
+  <si>
+    <t>Eric Hines</t>
+  </si>
+  <si>
+    <t>Raun Mawson</t>
+  </si>
+  <si>
+    <t>Christian Thomas</t>
+  </si>
+  <si>
+    <t>Josh Weight</t>
+  </si>
+  <si>
+    <t>Jonathan Van Dyke</t>
+  </si>
+  <si>
+    <t>Andrew Castillo</t>
+  </si>
+  <si>
+    <t>Michael Brooks</t>
+  </si>
+  <si>
+    <t>Austin Huff</t>
+  </si>
+  <si>
+    <t>/assets/images/egr304-f-2019/team-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1548,6 +1634,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1595,7 +1684,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1628,9 +1717,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1663,6 +1769,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1838,26 +1961,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="K57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P61" sqref="P61:P70"/>
+      <selection pane="bottomRight" activeCell="P80" sqref="P80:P83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="37" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1904,7 +2028,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1928,7 +2052,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1952,7 +2076,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1976,7 +2100,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2003,7 +2127,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2027,7 +2151,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2051,7 +2175,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2075,7 +2199,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2099,7 +2223,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2123,7 +2247,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2147,7 +2271,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2168,7 +2292,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2189,7 +2313,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2210,7 +2334,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -2231,7 +2355,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -2252,7 +2376,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6</v>
       </c>
@@ -2273,7 +2397,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7</v>
       </c>
@@ -2294,7 +2418,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>8</v>
       </c>
@@ -2315,7 +2439,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9</v>
       </c>
@@ -2336,7 +2460,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10</v>
       </c>
@@ -2357,7 +2481,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2387,7 +2511,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2414,7 +2538,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2441,7 +2565,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4</v>
       </c>
@@ -2468,7 +2592,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5</v>
       </c>
@@ -2495,7 +2619,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6</v>
       </c>
@@ -2522,7 +2646,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>7</v>
       </c>
@@ -2549,7 +2673,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>8</v>
       </c>
@@ -2576,7 +2700,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>9</v>
       </c>
@@ -2603,7 +2727,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2630,7 +2754,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -2660,7 +2784,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -2690,7 +2814,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2720,7 +2844,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5</v>
       </c>
@@ -2747,7 +2871,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>6</v>
       </c>
@@ -2777,7 +2901,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>7</v>
       </c>
@@ -2804,7 +2928,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>8</v>
       </c>
@@ -2825,7 +2949,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>9</v>
       </c>
@@ -2846,7 +2970,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2864,7 +2988,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
@@ -2882,7 +3006,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2900,7 +3024,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4</v>
       </c>
@@ -2918,7 +3042,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5</v>
       </c>
@@ -2936,7 +3060,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>6</v>
       </c>
@@ -2954,7 +3078,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>7</v>
       </c>
@@ -2972,7 +3096,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>8</v>
       </c>
@@ -2990,7 +3114,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -3029,7 +3153,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2</v>
       </c>
@@ -3068,7 +3192,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -3107,7 +3231,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4</v>
       </c>
@@ -3146,7 +3270,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5</v>
       </c>
@@ -3182,7 +3306,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>6</v>
       </c>
@@ -3221,7 +3345,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -3254,7 +3378,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2</v>
       </c>
@@ -3290,7 +3414,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -3326,7 +3450,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5</v>
       </c>
@@ -3362,7 +3486,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>6</v>
       </c>
@@ -3395,7 +3519,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>7</v>
       </c>
@@ -3431,7 +3555,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>8</v>
       </c>
@@ -3461,7 +3585,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>16</v>
       </c>
@@ -3497,7 +3621,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>17</v>
       </c>
@@ -3533,7 +3657,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>18</v>
       </c>
@@ -3569,7 +3693,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>19</v>
       </c>
@@ -3605,7 +3729,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>20</v>
       </c>
@@ -3641,7 +3765,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>21</v>
       </c>
@@ -3674,7 +3798,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>22</v>
       </c>
@@ -3710,7 +3834,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>23</v>
       </c>
@@ -3746,7 +3870,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>24</v>
       </c>
@@ -3779,7 +3903,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>25</v>
       </c>
@@ -3815,7 +3939,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>201</v>
       </c>
@@ -3848,7 +3972,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>202</v>
       </c>
@@ -3881,7 +4005,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>203</v>
       </c>
@@ -3917,7 +4041,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>204</v>
       </c>
@@ -3953,7 +4077,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>205</v>
       </c>
@@ -3989,7 +4113,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>206</v>
       </c>
@@ -4025,7 +4149,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>207</v>
       </c>
@@ -4061,7 +4185,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>208</v>
       </c>
@@ -4097,7 +4221,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>209</v>
       </c>
@@ -4130,6 +4254,144 @@
         <v>330</v>
       </c>
       <c r="Q79" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>101</v>
+      </c>
+      <c r="B80" t="s">
+        <v>332</v>
+      </c>
+      <c r="C80" t="s">
+        <v>333</v>
+      </c>
+      <c r="D80" t="s">
+        <v>337</v>
+      </c>
+      <c r="E80" t="s">
+        <v>341</v>
+      </c>
+      <c r="F80" t="s">
+        <v>342</v>
+      </c>
+      <c r="G80" t="s">
+        <v>343</v>
+      </c>
+      <c r="O80" s="1" t="str">
+        <f t="shared" ref="O80" si="3">P80&amp;A80&amp;Q80</f>
+        <v>/assets/images/egr304-f-2019/team-101.png</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>102</v>
+      </c>
+      <c r="B81" t="s">
+        <v>332</v>
+      </c>
+      <c r="C81" t="s">
+        <v>334</v>
+      </c>
+      <c r="D81" t="s">
+        <v>338</v>
+      </c>
+      <c r="E81" t="s">
+        <v>344</v>
+      </c>
+      <c r="F81" t="s">
+        <v>345</v>
+      </c>
+      <c r="G81" t="s">
+        <v>346</v>
+      </c>
+      <c r="O81" s="1" t="str">
+        <f t="shared" ref="O81:O83" si="4">P81&amp;A81&amp;Q81</f>
+        <v>/assets/images/egr304-f-2019/team-102.png</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>103</v>
+      </c>
+      <c r="B82" t="s">
+        <v>332</v>
+      </c>
+      <c r="C82" t="s">
+        <v>335</v>
+      </c>
+      <c r="D82" t="s">
+        <v>339</v>
+      </c>
+      <c r="E82" t="s">
+        <v>347</v>
+      </c>
+      <c r="F82" t="s">
+        <v>348</v>
+      </c>
+      <c r="G82" t="s">
+        <v>349</v>
+      </c>
+      <c r="H82" t="s">
+        <v>350</v>
+      </c>
+      <c r="O82" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/images/egr304-f-2019/team-103.png</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>104</v>
+      </c>
+      <c r="B83" t="s">
+        <v>332</v>
+      </c>
+      <c r="C83" t="s">
+        <v>336</v>
+      </c>
+      <c r="D83" t="s">
+        <v>340</v>
+      </c>
+      <c r="E83" t="s">
+        <v>351</v>
+      </c>
+      <c r="F83" t="s">
+        <v>352</v>
+      </c>
+      <c r="G83" t="s">
+        <v>353</v>
+      </c>
+      <c r="H83" t="s">
+        <v>354</v>
+      </c>
+      <c r="O83" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>/assets/images/egr304-f-2019/team-104.png</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q83" t="s">
         <v>299</v>
       </c>
     </row>
